--- a/documents/Nuclear_Featres_Cell_Line_Study_libv.1.xlsx
+++ b/documents/Nuclear_Featres_Cell_Line_Study_libv.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_COLLABORATION_\SandraCellLines\_Results_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/307c864b53f07dc3/Desktop/R Stuff/tma-pipeline/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6345AA-CADF-4B86-AA91-C5C04F863AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6345AA-CADF-4B86-AA91-C5C04F863AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="540" windowWidth="28800" windowHeight="14712" xr2:uid="{326CB752-B107-497D-A7A3-B46A256D0A9A}"/>
+    <workbookView xWindow="36705" yWindow="3480" windowWidth="13620" windowHeight="8685" xr2:uid="{326CB752-B107-497D-A7A3-B46A256D0A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Features-lib1" sheetId="1" r:id="rId1"/>
@@ -1537,26 +1537,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01925BB4-F31A-4198-8ACC-09B84698FB14}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="54.5546875" customWidth="1"/>
-    <col min="8" max="8" width="64.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="159.44140625" customWidth="1"/>
-    <col min="11" max="11" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="54.54296875" customWidth="1"/>
+    <col min="8" max="8" width="64.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="159.453125" customWidth="1"/>
+    <col min="11" max="11" width="45.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>153</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>129</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>165</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>170</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -2188,7 +2188,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>180</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>181</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>191</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>192</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="I42" s="23"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="I43" s="23"/>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="I44" s="23"/>
       <c r="J44" s="25"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>197</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="I45" s="23"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>199</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="I47" s="23"/>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="I48" s="23"/>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="I49" s="23"/>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="I50" s="23"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>203</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="I51" s="23"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="I52" s="23"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>205</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="I53" s="23"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="I54" s="23"/>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>207</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="I55" s="23"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="I56" s="23"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="I57" s="23"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>210</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="I58" s="23"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>211</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="I60" s="13"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>213</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="I61" s="13"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>214</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="I62" s="13"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="I63" s="13"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="28" t="s">
         <v>216</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="28" t="s">
         <v>217</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="I65" s="14"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B66" s="30"/>
     </row>
   </sheetData>
